--- a/Assignment/HLR excel sheet/hlr for standard user.xlsx
+++ b/Assignment/HLR excel sheet/hlr for standard user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATRI ENTERPRISE\Documents\GitHub\Nirav_Tops\Assignment\HLR excel sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B934724-0C72-41FF-9BD7-A2772D038D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6581E6C8-9959-46A7-8049-9AA7B5D2A5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>functionality id</t>
   </si>
@@ -190,6 +190,24 @@
   </si>
   <si>
     <t>same as 24 id</t>
+  </si>
+  <si>
+    <t>check twitter icon</t>
+  </si>
+  <si>
+    <t>while clicking on twitter icon, it its working properly, and also had opened.</t>
+  </si>
+  <si>
+    <t>check facebook icon</t>
+  </si>
+  <si>
+    <t>while clicking on facebook icon, it its working properly, and also had opened.</t>
+  </si>
+  <si>
+    <t>check linkedin icon</t>
+  </si>
+  <si>
+    <t>while clicking on linkedin icon, it its working properly, and also had opened.</t>
   </si>
 </sst>
 </file>
@@ -678,7 +696,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,30 +1048,48 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="A32" s="14">
         <v>53</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>54</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>55</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>56</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-    </row>
-    <row r="34" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-    </row>
-    <row r="35" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
     </row>
     <row r="36" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>

--- a/Assignment/HLR excel sheet/hlr for standard user.xlsx
+++ b/Assignment/HLR excel sheet/hlr for standard user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATRI ENTERPRISE\Documents\GitHub\Nirav_Tops\Assignment\HLR excel sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6581E6C8-9959-46A7-8049-9AA7B5D2A5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F944D19-5CC4-4CE7-B427-BBA1690775B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
